--- a/python_snippets/PIPS/PIPS_Mapping.xlsx
+++ b/python_snippets/PIPS/PIPS_Mapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3936"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="3936"/>
   </bookViews>
   <sheets>
     <sheet name="gsi_image_500m" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="249">
   <si>
     <t>feild1</t>
   </si>
@@ -180,18 +180,9 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>field_dimen_size</t>
-  </si>
-  <si>
-    <t>resolution</t>
-  </si>
-  <si>
     <t>Measure</t>
   </si>
   <si>
-    <t>field_dimen_res</t>
-  </si>
-  <si>
     <t>MD_ReferenceSystem</t>
   </si>
   <si>
@@ -237,9 +228,6 @@
     <t>Cl_Date</t>
   </si>
   <si>
-    <t>field_ci_Date</t>
-  </si>
-  <si>
     <t>identifier</t>
   </si>
   <si>
@@ -402,9 +390,6 @@
     <t>fileName</t>
   </si>
   <si>
-    <t>field_MD_browseGraphic_file</t>
-  </si>
-  <si>
     <t>resourceFormat</t>
   </si>
   <si>
@@ -426,9 +411,6 @@
     <t>keyword</t>
   </si>
   <si>
-    <t>field_MD_Keyword</t>
-  </si>
-  <si>
     <t>thesaurusName</t>
   </si>
   <si>
@@ -615,9 +597,6 @@
     <t>onLine</t>
   </si>
   <si>
-    <t>field_MD_DigitalTransferOptions_linkage</t>
-  </si>
-  <si>
     <t>protocol</t>
   </si>
   <si>
@@ -633,9 +612,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>field_MD_DigitalTransferOptions_desc</t>
-  </si>
-  <si>
     <t>dataQualityInfo</t>
   </si>
   <si>
@@ -751,6 +727,51 @@
   </si>
   <si>
     <t>field_mdProgressCode</t>
+  </si>
+  <si>
+    <t>field_dimen_size_1</t>
+  </si>
+  <si>
+    <t>field_dimen_size_2</t>
+  </si>
+  <si>
+    <t>field_dimen_res_1</t>
+  </si>
+  <si>
+    <t>field_dimen_res_2</t>
+  </si>
+  <si>
+    <t>field_MD_browseGraphic_file_2</t>
+  </si>
+  <si>
+    <t>field_MD_browseGraphic_file_1</t>
+  </si>
+  <si>
+    <t>field_MD_Keyword_1</t>
+  </si>
+  <si>
+    <t>field_MD_Keyword_2</t>
+  </si>
+  <si>
+    <t>field_ci_Date_1</t>
+  </si>
+  <si>
+    <t>field_ci_Date_2</t>
+  </si>
+  <si>
+    <t>field_ci_Date_3</t>
+  </si>
+  <si>
+    <t>field_MD_DigitalTransferOptions_linkage_1</t>
+  </si>
+  <si>
+    <t>field_MD_DigitalTransferOptions_linkage_2</t>
+  </si>
+  <si>
+    <t>field_MD_DigitalTransferOptions_desc_1</t>
+  </si>
+  <si>
+    <t>field_MD_DigitalTransferOptions_desc_2</t>
   </si>
 </sst>
 </file>
@@ -1077,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H19" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+      <selection activeCell="H96" sqref="H96:H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1094,10 +1115,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1126,19 +1147,19 @@
         <v>35</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1152,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M3" t="s">
         <v>3</v>
@@ -1169,7 +1190,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M4" t="s">
         <v>8</v>
@@ -1198,7 +1219,7 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M5" t="s">
         <v>18</v>
@@ -1227,7 +1248,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M6" t="s">
         <v>19</v>
@@ -1256,7 +1277,7 @@
         <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M7" t="s">
         <v>23</v>
@@ -1285,7 +1306,7 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M8" t="s">
         <v>25</v>
@@ -1314,7 +1335,7 @@
         <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M9" t="s">
         <v>27</v>
@@ -1343,7 +1364,7 @@
         <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M10" t="s">
         <v>29</v>
@@ -1372,7 +1393,7 @@
         <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M11" t="s">
         <v>31</v>
@@ -1461,7 +1482,7 @@
         <v>50</v>
       </c>
       <c r="M16" t="s">
-        <v>51</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1478,393 +1499,339 @@
         <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M17" t="s">
-        <v>54</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>51</v>
       </c>
       <c r="M19" t="s">
-        <v>59</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M22" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
         <v>60</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" t="s">
         <v>63</v>
-      </c>
-      <c r="E23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" t="s">
-        <v>68</v>
-      </c>
-      <c r="M23" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
         <v>60</v>
       </c>
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>62</v>
       </c>
-      <c r="D24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" t="s">
-        <v>71</v>
-      </c>
       <c r="F24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M24" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
         <v>60</v>
       </c>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" t="s">
-        <v>63</v>
-      </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
-      </c>
-      <c r="H25" t="s">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="M25" t="s">
-        <v>74</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
         <v>60</v>
       </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" t="s">
-        <v>63</v>
-      </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="G26" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" t="s">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="M26" t="s">
-        <v>76</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
         <v>60</v>
       </c>
-      <c r="B27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" t="s">
-        <v>63</v>
-      </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="G27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" t="s">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="M27" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
         <v>60</v>
       </c>
-      <c r="B28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" t="s">
-        <v>63</v>
-      </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F28" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="G28" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" t="s">
-        <v>63</v>
-      </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F29" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="G29" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M29" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" t="s">
-        <v>63</v>
-      </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M30" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" t="s">
-        <v>63</v>
-      </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M31" t="s">
-        <v>82</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
         <v>60</v>
       </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" t="s">
-        <v>63</v>
-      </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
@@ -1873,36 +1840,36 @@
         <v>9</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M32" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" t="s">
         <v>60</v>
       </c>
-      <c r="B33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" t="s">
-        <v>63</v>
-      </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
@@ -1911,36 +1878,36 @@
         <v>9</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="K33" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
         <v>60</v>
       </c>
-      <c r="B34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" t="s">
-        <v>63</v>
-      </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s">
         <v>5</v>
@@ -1955,30 +1922,30 @@
         <v>21</v>
       </c>
       <c r="J34" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M34" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" t="s">
         <v>60</v>
       </c>
-      <c r="B35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" t="s">
-        <v>63</v>
-      </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F35" t="s">
         <v>5</v>
@@ -1993,30 +1960,30 @@
         <v>21</v>
       </c>
       <c r="J35" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K35" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M35" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" t="s">
         <v>60</v>
       </c>
-      <c r="B36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" t="s">
-        <v>63</v>
-      </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F36" t="s">
         <v>5</v>
@@ -2025,427 +1992,439 @@
         <v>9</v>
       </c>
       <c r="H36" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J36" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K36" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="M36" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" t="s">
         <v>60</v>
       </c>
-      <c r="B37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" t="s">
-        <v>63</v>
-      </c>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="H37" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>90</v>
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>82</v>
+      </c>
+      <c r="K37" t="s">
+        <v>191</v>
       </c>
       <c r="M37" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" t="s">
         <v>60</v>
       </c>
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" t="s">
-        <v>63</v>
-      </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="H38" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>93</v>
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38" t="s">
+        <v>191</v>
       </c>
       <c r="M38" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" t="s">
         <v>60</v>
       </c>
-      <c r="B39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" t="s">
-        <v>198</v>
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" t="s">
+        <v>191</v>
       </c>
       <c r="M39" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" t="s">
         <v>60</v>
       </c>
-      <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" t="s">
-        <v>198</v>
+      <c r="E40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K40" t="s">
+        <v>36</v>
       </c>
       <c r="M40" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" t="s">
         <v>60</v>
       </c>
-      <c r="B41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" t="s">
-        <v>100</v>
-      </c>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>71</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" t="s">
+        <v>86</v>
       </c>
       <c r="M41" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" t="s">
         <v>60</v>
       </c>
-      <c r="B42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" t="s">
-        <v>100</v>
+      <c r="E42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" t="s">
+        <v>89</v>
       </c>
       <c r="M42" t="s">
-        <v>241</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M43" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M44" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45" t="s">
-        <v>198</v>
+        <v>86</v>
       </c>
       <c r="M45" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" t="s">
-        <v>198</v>
+        <v>96</v>
       </c>
       <c r="M46" t="s">
-        <v>107</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" t="s">
-        <v>22</v>
-      </c>
-      <c r="J47" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M47" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" t="s">
-        <v>21</v>
-      </c>
-      <c r="I48" t="s">
-        <v>24</v>
-      </c>
-      <c r="J48" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M48" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I49" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J49" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M49" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I50" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M50" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -2457,1302 +2436,1546 @@
         <v>21</v>
       </c>
       <c r="I51" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J51" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M51" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I52" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J52" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="M52" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="H53" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53" t="s">
+        <v>191</v>
       </c>
       <c r="M53" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+      <c r="J54" t="s">
+        <v>191</v>
       </c>
       <c r="M54" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F55" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="H55" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" t="s">
+        <v>191</v>
       </c>
       <c r="M55" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D56" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F56" t="s">
-        <v>117</v>
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" t="s">
+        <v>34</v>
+      </c>
+      <c r="J56" t="s">
+        <v>36</v>
       </c>
       <c r="M56" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D57" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s">
-        <v>198</v>
+        <v>42</v>
+      </c>
+      <c r="G57" t="s">
+        <v>86</v>
       </c>
       <c r="M57" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="D58" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c r="M58" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D59" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E59" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="F59" t="s">
-        <v>198</v>
+        <v>113</v>
+      </c>
+      <c r="G59" t="s">
+        <v>86</v>
       </c>
       <c r="M59" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D60" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E60" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
-      </c>
-      <c r="G60" t="s">
-        <v>64</v>
-      </c>
-      <c r="H60" t="s">
-        <v>198</v>
+        <v>113</v>
       </c>
       <c r="M60" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D61" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E61" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
-      </c>
-      <c r="G61" t="s">
-        <v>68</v>
-      </c>
-      <c r="H61" t="s">
-        <v>137</v>
-      </c>
-      <c r="I61" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="M61" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E62" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>63</v>
-      </c>
-      <c r="G62" t="s">
-        <v>68</v>
-      </c>
-      <c r="H62" t="s">
-        <v>137</v>
-      </c>
-      <c r="I62" t="s">
-        <v>138</v>
-      </c>
-      <c r="J62" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="M62" t="s">
-        <v>139</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D63" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E63" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
-      </c>
-      <c r="G63" t="s">
-        <v>68</v>
-      </c>
-      <c r="H63" t="s">
-        <v>137</v>
-      </c>
-      <c r="I63" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="M63" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D64" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E64" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="F64" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M64" t="s">
-        <v>144</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D65" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E65" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M65" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>60</v>
       </c>
-      <c r="B66" t="s">
+      <c r="G66" t="s">
         <v>61</v>
       </c>
-      <c r="C66" t="s">
-        <v>147</v>
-      </c>
-      <c r="D66" t="s">
-        <v>148</v>
-      </c>
-      <c r="E66" t="s">
-        <v>90</v>
+      <c r="H66" t="s">
+        <v>191</v>
       </c>
       <c r="M66" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>60</v>
       </c>
-      <c r="B67" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" t="s">
-        <v>147</v>
-      </c>
-      <c r="D67" t="s">
-        <v>148</v>
+      <c r="G67" t="s">
+        <v>65</v>
+      </c>
+      <c r="H67" t="s">
+        <v>131</v>
+      </c>
+      <c r="I67" t="s">
+        <v>65</v>
       </c>
       <c r="M67" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68" t="s">
+        <v>126</v>
+      </c>
+      <c r="E68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" t="s">
         <v>60</v>
       </c>
-      <c r="B68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" t="s">
-        <v>151</v>
-      </c>
-      <c r="D68" t="s">
-        <v>152</v>
-      </c>
-      <c r="E68" t="s">
-        <v>153</v>
-      </c>
-      <c r="F68" t="s">
-        <v>154</v>
+      <c r="G68" t="s">
+        <v>65</v>
+      </c>
+      <c r="H68" t="s">
+        <v>131</v>
+      </c>
+      <c r="I68" t="s">
+        <v>132</v>
+      </c>
+      <c r="J68" t="s">
+        <v>86</v>
       </c>
       <c r="M68" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" t="s">
+        <v>126</v>
+      </c>
+      <c r="E69" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" t="s">
         <v>60</v>
       </c>
-      <c r="B69" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" t="s">
-        <v>156</v>
-      </c>
-      <c r="D69" t="s">
-        <v>157</v>
+      <c r="G69" t="s">
+        <v>65</v>
+      </c>
+      <c r="H69" t="s">
+        <v>131</v>
+      </c>
+      <c r="I69" t="s">
+        <v>132</v>
       </c>
       <c r="M69" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="D70" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="E70" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>162</v>
-      </c>
-      <c r="G70" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="M70" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C71" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="D71" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="E71" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>162</v>
-      </c>
-      <c r="G71" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="M71" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C72" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D72" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="E72" t="s">
-        <v>161</v>
-      </c>
-      <c r="F72" t="s">
-        <v>162</v>
-      </c>
-      <c r="G72" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="M72" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C73" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D73" t="s">
-        <v>160</v>
-      </c>
-      <c r="E73" t="s">
-        <v>161</v>
-      </c>
-      <c r="F73" t="s">
-        <v>162</v>
-      </c>
-      <c r="G73" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="M73" t="s">
-        <v>169</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" t="s">
+        <v>146</v>
+      </c>
+      <c r="E74" t="s">
+        <v>147</v>
+      </c>
+      <c r="F74" t="s">
+        <v>148</v>
+      </c>
+      <c r="M74" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="B75" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="C75" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D75" t="s">
-        <v>127</v>
-      </c>
-      <c r="E75" t="s">
-        <v>175</v>
-      </c>
-      <c r="F75" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="M75" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="B76" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="C76" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D76" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E76" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F76" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="G76" t="s">
-        <v>4</v>
-      </c>
-      <c r="H76" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="M76" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="B77" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="C77" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D77" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E77" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F77" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="G77" t="s">
-        <v>7</v>
-      </c>
-      <c r="H77" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="M77" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="C78" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D78" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E78" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F78" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="G78" t="s">
-        <v>105</v>
-      </c>
-      <c r="H78" t="s">
-        <v>9</v>
-      </c>
-      <c r="I78" t="s">
-        <v>12</v>
-      </c>
-      <c r="J78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K78" t="s">
-        <v>17</v>
-      </c>
-      <c r="L78" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="M78" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="B79" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="C79" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D79" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E79" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="G79" t="s">
-        <v>105</v>
-      </c>
-      <c r="H79" t="s">
-        <v>9</v>
-      </c>
-      <c r="I79" t="s">
-        <v>12</v>
-      </c>
-      <c r="J79" t="s">
-        <v>13</v>
-      </c>
-      <c r="K79" t="s">
-        <v>14</v>
-      </c>
-      <c r="L79" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="M79" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>172</v>
-      </c>
-      <c r="B80" t="s">
-        <v>173</v>
-      </c>
-      <c r="C80" t="s">
-        <v>177</v>
-      </c>
-      <c r="D80" t="s">
-        <v>178</v>
-      </c>
-      <c r="E80" t="s">
-        <v>179</v>
-      </c>
-      <c r="F80" t="s">
-        <v>5</v>
-      </c>
-      <c r="G80" t="s">
-        <v>105</v>
-      </c>
-      <c r="H80" t="s">
-        <v>9</v>
-      </c>
-      <c r="I80" t="s">
-        <v>20</v>
-      </c>
-      <c r="J80" t="s">
-        <v>21</v>
-      </c>
-      <c r="K80" t="s">
-        <v>22</v>
-      </c>
-      <c r="L80" t="s">
-        <v>198</v>
-      </c>
-      <c r="M80" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B81" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C81" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D81" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="E81" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F81" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" t="s">
-        <v>105</v>
-      </c>
-      <c r="H81" t="s">
-        <v>9</v>
-      </c>
-      <c r="I81" t="s">
-        <v>20</v>
-      </c>
-      <c r="J81" t="s">
-        <v>21</v>
-      </c>
-      <c r="K81" t="s">
-        <v>24</v>
-      </c>
-      <c r="L81" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M81" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" t="s">
         <v>172</v>
       </c>
-      <c r="B82" t="s">
+      <c r="E82" t="s">
         <v>173</v>
       </c>
-      <c r="C82" t="s">
-        <v>177</v>
-      </c>
-      <c r="D82" t="s">
-        <v>178</v>
-      </c>
-      <c r="E82" t="s">
-        <v>179</v>
-      </c>
       <c r="F82" t="s">
         <v>5</v>
       </c>
       <c r="G82" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>9</v>
-      </c>
-      <c r="I82" t="s">
-        <v>20</v>
-      </c>
-      <c r="J82" t="s">
-        <v>21</v>
-      </c>
-      <c r="K82" t="s">
-        <v>26</v>
-      </c>
-      <c r="L82" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M82" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="s">
+        <v>171</v>
+      </c>
+      <c r="D83" t="s">
         <v>172</v>
       </c>
-      <c r="B83" t="s">
+      <c r="E83" t="s">
         <v>173</v>
       </c>
-      <c r="C83" t="s">
-        <v>177</v>
-      </c>
-      <c r="D83" t="s">
-        <v>178</v>
-      </c>
-      <c r="E83" t="s">
-        <v>179</v>
-      </c>
       <c r="F83" t="s">
         <v>5</v>
       </c>
       <c r="G83" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="H83" t="s">
-        <v>9</v>
-      </c>
-      <c r="I83" t="s">
-        <v>20</v>
-      </c>
-      <c r="J83" t="s">
-        <v>21</v>
-      </c>
-      <c r="K83" t="s">
-        <v>88</v>
-      </c>
-      <c r="L83" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M83" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" t="s">
+        <v>171</v>
+      </c>
+      <c r="D84" t="s">
         <v>172</v>
       </c>
-      <c r="B84" t="s">
+      <c r="E84" t="s">
         <v>173</v>
       </c>
-      <c r="C84" t="s">
-        <v>177</v>
-      </c>
-      <c r="D84" t="s">
-        <v>178</v>
-      </c>
-      <c r="E84" t="s">
-        <v>179</v>
-      </c>
       <c r="F84" t="s">
         <v>5</v>
       </c>
       <c r="G84" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H84" t="s">
         <v>9</v>
       </c>
       <c r="I84" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J84" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K84" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L84" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M84" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" t="s">
+        <v>171</v>
+      </c>
+      <c r="D85" t="s">
         <v>172</v>
       </c>
-      <c r="B85" t="s">
+      <c r="E85" t="s">
         <v>173</v>
       </c>
-      <c r="C85" t="s">
-        <v>177</v>
-      </c>
-      <c r="D85" t="s">
-        <v>178</v>
-      </c>
-      <c r="E85" t="s">
-        <v>179</v>
-      </c>
       <c r="F85" t="s">
         <v>5</v>
       </c>
       <c r="G85" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H85" t="s">
         <v>9</v>
       </c>
       <c r="I85" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="J85" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="K85" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="L85" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M85" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" t="s">
         <v>172</v>
       </c>
-      <c r="B86" t="s">
+      <c r="E86" t="s">
         <v>173</v>
       </c>
-      <c r="C86" t="s">
-        <v>193</v>
-      </c>
-      <c r="D86" t="s">
-        <v>194</v>
-      </c>
-      <c r="E86" t="s">
-        <v>195</v>
-      </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="H86" t="s">
-        <v>190</v>
+        <v>9</v>
+      </c>
+      <c r="I86" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" t="s">
+        <v>21</v>
+      </c>
+      <c r="K86" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" t="s">
+        <v>191</v>
       </c>
       <c r="M86" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" t="s">
+        <v>171</v>
+      </c>
+      <c r="D87" t="s">
         <v>172</v>
       </c>
-      <c r="B87" t="s">
+      <c r="E87" t="s">
         <v>173</v>
       </c>
-      <c r="C87" t="s">
-        <v>193</v>
-      </c>
-      <c r="D87" t="s">
-        <v>194</v>
-      </c>
-      <c r="E87" t="s">
-        <v>195</v>
-      </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G87" t="s">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="H87" t="s">
-        <v>198</v>
+        <v>9</v>
+      </c>
+      <c r="I87" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" t="s">
+        <v>21</v>
+      </c>
+      <c r="K87" t="s">
+        <v>24</v>
+      </c>
+      <c r="L87" t="s">
+        <v>191</v>
       </c>
       <c r="M87" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>166</v>
+      </c>
+      <c r="B88" t="s">
+        <v>167</v>
+      </c>
+      <c r="C88" t="s">
+        <v>171</v>
+      </c>
+      <c r="D88" t="s">
         <v>172</v>
       </c>
-      <c r="B88" t="s">
+      <c r="E88" t="s">
         <v>173</v>
       </c>
-      <c r="C88" t="s">
-        <v>193</v>
-      </c>
-      <c r="D88" t="s">
-        <v>194</v>
-      </c>
-      <c r="E88" t="s">
-        <v>195</v>
-      </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G88" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="H88" t="s">
-        <v>198</v>
+        <v>9</v>
+      </c>
+      <c r="I88" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" t="s">
+        <v>21</v>
+      </c>
+      <c r="K88" t="s">
+        <v>26</v>
+      </c>
+      <c r="L88" t="s">
+        <v>191</v>
       </c>
       <c r="M88" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>166</v>
+      </c>
+      <c r="B89" t="s">
+        <v>167</v>
+      </c>
+      <c r="C89" t="s">
+        <v>171</v>
+      </c>
+      <c r="D89" t="s">
         <v>172</v>
       </c>
-      <c r="B89" t="s">
+      <c r="E89" t="s">
         <v>173</v>
       </c>
-      <c r="C89" t="s">
-        <v>193</v>
-      </c>
-      <c r="D89" t="s">
-        <v>194</v>
-      </c>
-      <c r="E89" t="s">
-        <v>195</v>
-      </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G89" t="s">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="H89" t="s">
-        <v>198</v>
+        <v>9</v>
+      </c>
+      <c r="I89" t="s">
+        <v>20</v>
+      </c>
+      <c r="J89" t="s">
+        <v>21</v>
+      </c>
+      <c r="K89" t="s">
+        <v>84</v>
+      </c>
+      <c r="L89" t="s">
+        <v>191</v>
       </c>
       <c r="M89" t="s">
-        <v>202</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>166</v>
+      </c>
+      <c r="B90" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90" t="s">
+        <v>171</v>
+      </c>
+      <c r="D90" t="s">
+        <v>172</v>
+      </c>
+      <c r="E90" t="s">
+        <v>173</v>
+      </c>
+      <c r="F90" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" t="s">
+        <v>101</v>
+      </c>
+      <c r="H90" t="s">
+        <v>9</v>
+      </c>
+      <c r="I90" t="s">
+        <v>20</v>
+      </c>
+      <c r="J90" t="s">
+        <v>21</v>
+      </c>
+      <c r="K90" t="s">
+        <v>30</v>
+      </c>
+      <c r="L90" t="s">
+        <v>191</v>
+      </c>
+      <c r="M90" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="B91" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="C91" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="D91" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="E91" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>208</v>
+        <v>5</v>
       </c>
       <c r="G91" t="s">
-        <v>209</v>
+        <v>101</v>
       </c>
       <c r="H91" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="I91" t="s">
-        <v>64</v>
+        <v>32</v>
+      </c>
+      <c r="J91" t="s">
+        <v>33</v>
+      </c>
+      <c r="K91" t="s">
+        <v>34</v>
+      </c>
+      <c r="L91" t="s">
+        <v>184</v>
       </c>
       <c r="M91" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="B92" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="C92" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="D92" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="E92" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="F92" t="s">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="H92" t="s">
-        <v>63</v>
-      </c>
-      <c r="I92" t="s">
-        <v>68</v>
-      </c>
-      <c r="J92" t="s">
-        <v>137</v>
-      </c>
-      <c r="K92" t="s">
-        <v>68</v>
-      </c>
-      <c r="L92" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="M92" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="B93" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="C93" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="D93" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="E93" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="F93" t="s">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="H93" t="s">
-        <v>63</v>
-      </c>
-      <c r="I93" t="s">
-        <v>68</v>
-      </c>
-      <c r="J93" t="s">
-        <v>137</v>
-      </c>
-      <c r="K93" t="s">
-        <v>138</v>
-      </c>
-      <c r="L93" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="M93" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="B94" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="C94" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="D94" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="E94" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="F94" t="s">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="H94" t="s">
-        <v>63</v>
-      </c>
-      <c r="I94" t="s">
-        <v>68</v>
-      </c>
-      <c r="J94" t="s">
-        <v>137</v>
-      </c>
-      <c r="K94" t="s">
-        <v>138</v>
-      </c>
-      <c r="L94" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="M94" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="B95" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="C95" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="D95" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="E95" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="F95" t="s">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="H95" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="M95" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>166</v>
+      </c>
+      <c r="B96" t="s">
+        <v>167</v>
+      </c>
+      <c r="C96" t="s">
+        <v>187</v>
+      </c>
+      <c r="D96" t="s">
+        <v>188</v>
+      </c>
+      <c r="E96" t="s">
+        <v>189</v>
+      </c>
+      <c r="F96" t="s">
+        <v>33</v>
+      </c>
+      <c r="G96" t="s">
+        <v>194</v>
+      </c>
+      <c r="H96" t="s">
+        <v>191</v>
+      </c>
+      <c r="M96" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>166</v>
+      </c>
+      <c r="B97" t="s">
+        <v>167</v>
+      </c>
+      <c r="C97" t="s">
+        <v>187</v>
+      </c>
+      <c r="D97" t="s">
+        <v>188</v>
+      </c>
+      <c r="E97" t="s">
+        <v>189</v>
+      </c>
+      <c r="F97" t="s">
+        <v>33</v>
+      </c>
+      <c r="G97" t="s">
+        <v>194</v>
+      </c>
+      <c r="H97" t="s">
+        <v>191</v>
+      </c>
+      <c r="M97" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99" t="s">
+        <v>197</v>
+      </c>
+      <c r="D99" t="s">
+        <v>198</v>
+      </c>
+      <c r="E99" t="s">
+        <v>199</v>
+      </c>
+      <c r="F99" t="s">
+        <v>200</v>
+      </c>
+      <c r="G99" t="s">
+        <v>201</v>
+      </c>
+      <c r="H99" t="s">
+        <v>60</v>
+      </c>
+      <c r="I99" t="s">
+        <v>61</v>
+      </c>
+      <c r="M99" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" t="s">
+        <v>197</v>
+      </c>
+      <c r="D100" t="s">
+        <v>198</v>
+      </c>
+      <c r="E100" t="s">
+        <v>199</v>
+      </c>
+      <c r="F100" t="s">
+        <v>200</v>
+      </c>
+      <c r="G100" t="s">
+        <v>201</v>
+      </c>
+      <c r="H100" t="s">
+        <v>60</v>
+      </c>
+      <c r="I100" t="s">
+        <v>65</v>
+      </c>
+      <c r="J100" t="s">
+        <v>131</v>
+      </c>
+      <c r="K100" t="s">
+        <v>65</v>
+      </c>
+      <c r="L100" t="s">
         <v>203</v>
       </c>
-      <c r="B96" t="s">
+      <c r="M100" t="s">
         <v>204</v>
       </c>
-      <c r="C96" t="s">
-        <v>220</v>
-      </c>
-      <c r="D96" t="s">
-        <v>221</v>
-      </c>
-      <c r="E96" t="s">
-        <v>222</v>
-      </c>
-      <c r="F96" t="s">
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>195</v>
+      </c>
+      <c r="B101" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101" t="s">
+        <v>197</v>
+      </c>
+      <c r="D101" t="s">
         <v>198</v>
       </c>
-      <c r="M96" t="s">
-        <v>223</v>
+      <c r="E101" t="s">
+        <v>199</v>
+      </c>
+      <c r="F101" t="s">
+        <v>200</v>
+      </c>
+      <c r="G101" t="s">
+        <v>201</v>
+      </c>
+      <c r="H101" t="s">
+        <v>60</v>
+      </c>
+      <c r="I101" t="s">
+        <v>65</v>
+      </c>
+      <c r="J101" t="s">
+        <v>131</v>
+      </c>
+      <c r="K101" t="s">
+        <v>132</v>
+      </c>
+      <c r="L101" t="s">
+        <v>205</v>
+      </c>
+      <c r="M101" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" t="s">
+        <v>197</v>
+      </c>
+      <c r="D102" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" t="s">
+        <v>199</v>
+      </c>
+      <c r="F102" t="s">
+        <v>200</v>
+      </c>
+      <c r="G102" t="s">
+        <v>201</v>
+      </c>
+      <c r="H102" t="s">
+        <v>60</v>
+      </c>
+      <c r="I102" t="s">
+        <v>65</v>
+      </c>
+      <c r="J102" t="s">
+        <v>131</v>
+      </c>
+      <c r="K102" t="s">
+        <v>132</v>
+      </c>
+      <c r="L102" t="s">
+        <v>206</v>
+      </c>
+      <c r="M102" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>195</v>
+      </c>
+      <c r="B103" t="s">
+        <v>196</v>
+      </c>
+      <c r="C103" t="s">
+        <v>197</v>
+      </c>
+      <c r="D103" t="s">
+        <v>198</v>
+      </c>
+      <c r="E103" t="s">
+        <v>199</v>
+      </c>
+      <c r="F103" t="s">
+        <v>200</v>
+      </c>
+      <c r="G103" t="s">
+        <v>209</v>
+      </c>
+      <c r="H103" t="s">
+        <v>210</v>
+      </c>
+      <c r="M103" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>195</v>
+      </c>
+      <c r="B104" t="s">
+        <v>196</v>
+      </c>
+      <c r="C104" t="s">
+        <v>212</v>
+      </c>
+      <c r="D104" t="s">
+        <v>213</v>
+      </c>
+      <c r="E104" t="s">
+        <v>214</v>
+      </c>
+      <c r="F104" t="s">
+        <v>191</v>
+      </c>
+      <c r="M104" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3765,7 +3988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -3781,7 +4004,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3804,7 +4027,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -3812,16 +4035,16 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -3829,16 +4052,16 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -3846,22 +4069,22 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" t="s">
         <v>227</v>
       </c>
-      <c r="C5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" t="s">
-        <v>235</v>
-      </c>
       <c r="E5" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F5" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G5" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -3869,22 +4092,22 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" t="s">
         <v>227</v>
       </c>
-      <c r="C6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D6" t="s">
-        <v>235</v>
-      </c>
       <c r="E6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F6" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G6" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/python_snippets/PIPS/PIPS_Mapping.xlsx
+++ b/python_snippets/PIPS/PIPS_Mapping.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="241">
   <si>
     <t>feild1</t>
   </si>
@@ -156,9 +156,6 @@
     <t>CI_RoleCode</t>
   </si>
   <si>
-    <t>field_attr_rolecode_codeListValue</t>
-  </si>
-  <si>
     <t>field_roleCode</t>
   </si>
   <si>
@@ -288,9 +285,6 @@
     <t>codeListValue</t>
   </si>
   <si>
-    <t>field_citiation_attr_rolecode_codeListValue</t>
-  </si>
-  <si>
     <t>field_citiation_rolecode</t>
   </si>
   <si>
@@ -318,9 +312,6 @@
     <t>MD_ProgressCode</t>
   </si>
   <si>
-    <t>field_attr_mdProgressCode_codeListValue</t>
-  </si>
-  <si>
     <t>pointOfContact</t>
   </si>
   <si>
@@ -372,15 +363,9 @@
     <t>field_pointOfContact_rolecode</t>
   </si>
   <si>
-    <t>field_MD_MaintenanceFrequencyCode_attr_codeListValue</t>
-  </si>
-  <si>
     <t>field_MD_MaintenanceFrequencyCode</t>
   </si>
   <si>
-    <t>field_pointOfContact_rolecode_attr_codeListValue</t>
-  </si>
-  <si>
     <t>graphicOverview</t>
   </si>
   <si>
@@ -426,9 +411,6 @@
     <t>dateType</t>
   </si>
   <si>
-    <t>field_Keyword_Thessar_Citi_dateType_attr_codeListValue</t>
-  </si>
-  <si>
     <t>field_Keyword_Thessar_Citi_dateType</t>
   </si>
   <si>
@@ -456,9 +438,6 @@
     <t>MD_SpatialRepresentationTypeCode</t>
   </si>
   <si>
-    <t>field_MD_SpatialRepresentationTypeCode_attr_codeListValue</t>
-  </si>
-  <si>
     <t>field_MD_SpatialRepresentationTypeCode</t>
   </si>
   <si>
@@ -648,9 +627,6 @@
     <t>CI_DateTypeCode</t>
   </si>
   <si>
-    <t>field_dataQualityInfo_citation_dateTypeCode_attr_codeListValue</t>
-  </si>
-  <si>
     <t>field_dataQualityInfo_citation_dateTypeCode</t>
   </si>
   <si>
@@ -702,9 +678,6 @@
     <t>field_MD_TopologyLevelCode</t>
   </si>
   <si>
-    <t>MD_TopologyLevelCode_attr_codeListValue</t>
-  </si>
-  <si>
     <t>geometricObjects</t>
   </si>
   <si>
@@ -723,9 +696,6 @@
     <t>field_MD_GeometricObjectTypeCode</t>
   </si>
   <si>
-    <t>field|_MD_GeometricObjectTypeCode_attr_codeListValue</t>
-  </si>
-  <si>
     <t>field_mdProgressCode</t>
   </si>
   <si>
@@ -772,6 +742,12 @@
   </si>
   <si>
     <t>field_MD_DigitalTransferOptions_desc_2</t>
+  </si>
+  <si>
+    <t>field_rolecode</t>
+  </si>
+  <si>
+    <t>field_distributor_rolecode</t>
   </si>
 </sst>
 </file>
@@ -1098,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H19" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96:H97"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1115,10 +1091,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1147,19 +1123,19 @@
         <v>35</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1173,7 +1149,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M3" t="s">
         <v>3</v>
@@ -1190,7 +1166,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M4" t="s">
         <v>8</v>
@@ -1219,7 +1195,7 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M5" t="s">
         <v>18</v>
@@ -1248,7 +1224,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M6" t="s">
         <v>19</v>
@@ -1277,7 +1253,7 @@
         <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M7" t="s">
         <v>23</v>
@@ -1306,7 +1282,7 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M8" t="s">
         <v>25</v>
@@ -1335,7 +1311,7 @@
         <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M9" t="s">
         <v>27</v>
@@ -1364,7 +1340,7 @@
         <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M10" t="s">
         <v>29</v>
@@ -1393,7 +1369,7 @@
         <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M11" t="s">
         <v>31</v>
@@ -1441,8 +1417,11 @@
       <c r="D13" t="s">
         <v>42</v>
       </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
       <c r="M13" t="s">
-        <v>43</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1453,327 +1432,327 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>48</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>49</v>
       </c>
-      <c r="F16" t="s">
-        <v>50</v>
-      </c>
       <c r="M16" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>48</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>49</v>
       </c>
-      <c r="F17" t="s">
-        <v>50</v>
-      </c>
       <c r="M17" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>47</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>48</v>
       </c>
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M18" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>46</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>47</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>48</v>
       </c>
-      <c r="E19" t="s">
-        <v>49</v>
-      </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M19" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
         <v>52</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>53</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>54</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>184</v>
+      </c>
+      <c r="M21" t="s">
         <v>55</v>
-      </c>
-      <c r="F21" t="s">
-        <v>191</v>
-      </c>
-      <c r="M21" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
         <v>58</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>59</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>60</v>
       </c>
-      <c r="E23" t="s">
-        <v>61</v>
-      </c>
       <c r="F23" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
         <v>58</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>59</v>
       </c>
-      <c r="D24" t="s">
-        <v>60</v>
-      </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
         <v>58</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>59</v>
       </c>
-      <c r="D25" t="s">
-        <v>60</v>
-      </c>
       <c r="E25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" t="s">
         <v>65</v>
       </c>
-      <c r="F25" t="s">
-        <v>66</v>
-      </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M25" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
         <v>58</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>59</v>
       </c>
-      <c r="D26" t="s">
-        <v>60</v>
-      </c>
       <c r="E26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" t="s">
         <v>65</v>
       </c>
-      <c r="F26" t="s">
-        <v>66</v>
-      </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M26" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
         <v>58</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>59</v>
       </c>
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
       <c r="E27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" t="s">
         <v>65</v>
       </c>
-      <c r="F27" t="s">
-        <v>66</v>
-      </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M27" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
         <v>58</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>59</v>
       </c>
-      <c r="D28" t="s">
-        <v>60</v>
-      </c>
       <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" t="s">
+        <v>184</v>
+      </c>
+      <c r="M28" t="s">
         <v>67</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" t="s">
-        <v>191</v>
-      </c>
-      <c r="M28" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
         <v>58</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>59</v>
       </c>
-      <c r="D29" t="s">
-        <v>60</v>
-      </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" t="s">
+        <v>184</v>
+      </c>
+      <c r="M29" t="s">
         <v>69</v>
-      </c>
-      <c r="H29" t="s">
-        <v>191</v>
-      </c>
-      <c r="M29" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
         <v>58</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>59</v>
       </c>
-      <c r="D30" t="s">
-        <v>60</v>
-      </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -1782,27 +1761,27 @@
         <v>4</v>
       </c>
       <c r="H30" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
         <v>58</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>59</v>
       </c>
-      <c r="D31" t="s">
-        <v>60</v>
-      </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -1811,27 +1790,27 @@
         <v>7</v>
       </c>
       <c r="H31" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M31" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
         <v>58</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>59</v>
       </c>
-      <c r="D32" t="s">
-        <v>60</v>
-      </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
@@ -1849,27 +1828,27 @@
         <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
         <v>58</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>59</v>
       </c>
-      <c r="D33" t="s">
-        <v>60</v>
-      </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
@@ -1887,27 +1866,27 @@
         <v>14</v>
       </c>
       <c r="K33" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
         <v>58</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>59</v>
       </c>
-      <c r="D34" t="s">
-        <v>60</v>
-      </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F34" t="s">
         <v>5</v>
@@ -1925,27 +1904,27 @@
         <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
         <v>58</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>59</v>
       </c>
-      <c r="D35" t="s">
-        <v>60</v>
-      </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F35" t="s">
         <v>5</v>
@@ -1963,27 +1942,27 @@
         <v>24</v>
       </c>
       <c r="K35" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
         <v>58</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>59</v>
       </c>
-      <c r="D36" t="s">
-        <v>60</v>
-      </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
         <v>5</v>
@@ -2001,27 +1980,27 @@
         <v>26</v>
       </c>
       <c r="K36" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
         <v>58</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>59</v>
       </c>
-      <c r="D37" t="s">
-        <v>60</v>
-      </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
         <v>5</v>
@@ -2036,30 +2015,30 @@
         <v>21</v>
       </c>
       <c r="J37" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37" t="s">
+        <v>184</v>
+      </c>
+      <c r="M37" t="s">
         <v>82</v>
-      </c>
-      <c r="K37" t="s">
-        <v>191</v>
-      </c>
-      <c r="M37" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
         <v>58</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>59</v>
       </c>
-      <c r="D38" t="s">
-        <v>60</v>
-      </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -2074,30 +2053,30 @@
         <v>21</v>
       </c>
       <c r="J38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K38" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>59</v>
       </c>
-      <c r="D39" t="s">
-        <v>60</v>
-      </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F39" t="s">
         <v>5</v>
@@ -2115,27 +2094,27 @@
         <v>30</v>
       </c>
       <c r="K39" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
         <v>58</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>59</v>
       </c>
-      <c r="D40" t="s">
-        <v>60</v>
-      </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -2156,24 +2135,24 @@
         <v>36</v>
       </c>
       <c r="M40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
         <v>58</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>59</v>
       </c>
-      <c r="D41" t="s">
-        <v>60</v>
-      </c>
       <c r="E41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F41" t="s">
         <v>5</v>
@@ -2185,27 +2164,27 @@
         <v>42</v>
       </c>
       <c r="I41" t="s">
+        <v>85</v>
+      </c>
+      <c r="M41" t="s">
         <v>86</v>
-      </c>
-      <c r="M41" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
         <v>58</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>59</v>
       </c>
-      <c r="D42" t="s">
-        <v>60</v>
-      </c>
       <c r="E42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F42" t="s">
         <v>5</v>
@@ -2217,92 +2196,92 @@
         <v>42</v>
       </c>
       <c r="I42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M45" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M46" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
@@ -2311,21 +2290,21 @@
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -2334,27 +2313,27 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
         <v>98</v>
-      </c>
-      <c r="D49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" t="s">
-        <v>101</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -2369,27 +2348,27 @@
         <v>17</v>
       </c>
       <c r="J49" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
         <v>98</v>
-      </c>
-      <c r="D50" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" t="s">
-        <v>101</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -2404,27 +2383,27 @@
         <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M50" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
         <v>98</v>
-      </c>
-      <c r="D51" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" t="s">
-        <v>101</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -2439,27 +2418,27 @@
         <v>22</v>
       </c>
       <c r="J51" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M51" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
         <v>98</v>
-      </c>
-      <c r="D52" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" t="s">
-        <v>101</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -2474,27 +2453,27 @@
         <v>24</v>
       </c>
       <c r="J52" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M52" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
         <v>98</v>
-      </c>
-      <c r="D53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" t="s">
-        <v>101</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -2509,27 +2488,27 @@
         <v>26</v>
       </c>
       <c r="J53" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
         <v>98</v>
-      </c>
-      <c r="D54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" t="s">
-        <v>101</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -2541,30 +2520,30 @@
         <v>21</v>
       </c>
       <c r="I54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J54" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
         <v>98</v>
-      </c>
-      <c r="D55" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" t="s">
-        <v>101</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -2579,27 +2558,27 @@
         <v>30</v>
       </c>
       <c r="J55" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
         <v>98</v>
-      </c>
-      <c r="D56" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" t="s">
-        <v>101</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -2617,18 +2596,18 @@
         <v>36</v>
       </c>
       <c r="M56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -2640,21 +2619,21 @@
         <v>42</v>
       </c>
       <c r="G57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M57" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -2666,566 +2645,566 @@
         <v>42</v>
       </c>
       <c r="M58" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" t="s">
         <v>110</v>
       </c>
-      <c r="D59" t="s">
-        <v>111</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="G59" t="s">
+        <v>85</v>
+      </c>
+      <c r="M59" t="s">
         <v>112</v>
-      </c>
-      <c r="F59" t="s">
-        <v>113</v>
-      </c>
-      <c r="G59" t="s">
-        <v>86</v>
-      </c>
-      <c r="M59" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60" t="s">
         <v>110</v>
       </c>
-      <c r="D60" t="s">
-        <v>111</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="M60" t="s">
         <v>112</v>
-      </c>
-      <c r="F60" t="s">
-        <v>113</v>
-      </c>
-      <c r="M60" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D61" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M61" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D62" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F62" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M62" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C63" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D63" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F63" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M63" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D64" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F64" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M64" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C65" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D65" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F65" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M65" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C66" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D66" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E66" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F66" t="s">
+        <v>59</v>
+      </c>
+      <c r="G66" t="s">
         <v>60</v>
       </c>
-      <c r="G66" t="s">
-        <v>61</v>
-      </c>
       <c r="H66" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M66" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" t="s">
+        <v>121</v>
+      </c>
+      <c r="E67" t="s">
+        <v>123</v>
+      </c>
+      <c r="F67" t="s">
+        <v>59</v>
+      </c>
+      <c r="G67" t="s">
+        <v>64</v>
+      </c>
+      <c r="H67" t="s">
+        <v>126</v>
+      </c>
+      <c r="I67" t="s">
+        <v>64</v>
+      </c>
+      <c r="M67" t="s">
         <v>125</v>
-      </c>
-      <c r="D67" t="s">
-        <v>126</v>
-      </c>
-      <c r="E67" t="s">
-        <v>128</v>
-      </c>
-      <c r="F67" t="s">
-        <v>60</v>
-      </c>
-      <c r="G67" t="s">
-        <v>65</v>
-      </c>
-      <c r="H67" t="s">
-        <v>131</v>
-      </c>
-      <c r="I67" t="s">
-        <v>65</v>
-      </c>
-      <c r="M67" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C68" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E68" t="s">
+        <v>123</v>
+      </c>
+      <c r="F68" t="s">
+        <v>59</v>
+      </c>
+      <c r="G68" t="s">
+        <v>64</v>
+      </c>
+      <c r="H68" t="s">
         <v>126</v>
       </c>
-      <c r="E68" t="s">
+      <c r="I68" t="s">
+        <v>127</v>
+      </c>
+      <c r="J68" t="s">
+        <v>85</v>
+      </c>
+      <c r="M68" t="s">
         <v>128</v>
-      </c>
-      <c r="F68" t="s">
-        <v>60</v>
-      </c>
-      <c r="G68" t="s">
-        <v>65</v>
-      </c>
-      <c r="H68" t="s">
-        <v>131</v>
-      </c>
-      <c r="I68" t="s">
-        <v>132</v>
-      </c>
-      <c r="J68" t="s">
-        <v>86</v>
-      </c>
-      <c r="M68" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C69" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D69" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" t="s">
+        <v>123</v>
+      </c>
+      <c r="F69" t="s">
+        <v>59</v>
+      </c>
+      <c r="G69" t="s">
+        <v>64</v>
+      </c>
+      <c r="H69" t="s">
         <v>126</v>
       </c>
-      <c r="E69" t="s">
+      <c r="I69" t="s">
+        <v>127</v>
+      </c>
+      <c r="M69" t="s">
         <v>128</v>
-      </c>
-      <c r="F69" t="s">
-        <v>60</v>
-      </c>
-      <c r="G69" t="s">
-        <v>65</v>
-      </c>
-      <c r="H69" t="s">
-        <v>131</v>
-      </c>
-      <c r="I69" t="s">
-        <v>132</v>
-      </c>
-      <c r="M69" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D70" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F70" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M70" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C71" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D71" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M71" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C72" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D72" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M72" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D73" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M73" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D74" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="M74" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D75" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="M75" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D76" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E76" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F76" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G76" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="M76" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77" t="s">
+        <v>147</v>
+      </c>
+      <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
+        <v>149</v>
+      </c>
+      <c r="G77" t="s">
+        <v>152</v>
+      </c>
+      <c r="M77" t="s">
         <v>153</v>
-      </c>
-      <c r="D77" t="s">
-        <v>154</v>
-      </c>
-      <c r="E77" t="s">
-        <v>155</v>
-      </c>
-      <c r="F77" t="s">
-        <v>156</v>
-      </c>
-      <c r="G77" t="s">
-        <v>159</v>
-      </c>
-      <c r="M77" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D78" t="s">
+        <v>147</v>
+      </c>
+      <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
+        <v>149</v>
+      </c>
+      <c r="G78" t="s">
+        <v>155</v>
+      </c>
+      <c r="M78" t="s">
         <v>154</v>
-      </c>
-      <c r="E78" t="s">
-        <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
-      </c>
-      <c r="G78" t="s">
-        <v>162</v>
-      </c>
-      <c r="M78" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C79" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D79" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F79" t="s">
+        <v>149</v>
+      </c>
+      <c r="G79" t="s">
+        <v>157</v>
+      </c>
+      <c r="M79" t="s">
         <v>156</v>
-      </c>
-      <c r="G79" t="s">
-        <v>164</v>
-      </c>
-      <c r="M79" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B81" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C81" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D81" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E81" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F81" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M81" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" t="s">
+        <v>164</v>
+      </c>
+      <c r="D82" t="s">
+        <v>165</v>
+      </c>
+      <c r="E82" t="s">
         <v>166</v>
-      </c>
-      <c r="B82" t="s">
-        <v>167</v>
-      </c>
-      <c r="C82" t="s">
-        <v>171</v>
-      </c>
-      <c r="D82" t="s">
-        <v>172</v>
-      </c>
-      <c r="E82" t="s">
-        <v>173</v>
       </c>
       <c r="F82" t="s">
         <v>5</v>
@@ -3234,27 +3213,27 @@
         <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M82" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" t="s">
+        <v>164</v>
+      </c>
+      <c r="D83" t="s">
+        <v>165</v>
+      </c>
+      <c r="E83" t="s">
         <v>166</v>
-      </c>
-      <c r="B83" t="s">
-        <v>167</v>
-      </c>
-      <c r="C83" t="s">
-        <v>171</v>
-      </c>
-      <c r="D83" t="s">
-        <v>172</v>
-      </c>
-      <c r="E83" t="s">
-        <v>173</v>
       </c>
       <c r="F83" t="s">
         <v>5</v>
@@ -3263,33 +3242,33 @@
         <v>7</v>
       </c>
       <c r="H83" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M83" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" t="s">
+        <v>164</v>
+      </c>
+      <c r="D84" t="s">
+        <v>165</v>
+      </c>
+      <c r="E84" t="s">
         <v>166</v>
       </c>
-      <c r="B84" t="s">
-        <v>167</v>
-      </c>
-      <c r="C84" t="s">
-        <v>171</v>
-      </c>
-      <c r="D84" t="s">
-        <v>172</v>
-      </c>
-      <c r="E84" t="s">
-        <v>173</v>
-      </c>
       <c r="F84" t="s">
         <v>5</v>
       </c>
       <c r="G84" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H84" t="s">
         <v>9</v>
@@ -3304,33 +3283,33 @@
         <v>17</v>
       </c>
       <c r="L84" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M84" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85" t="s">
+        <v>160</v>
+      </c>
+      <c r="C85" t="s">
+        <v>164</v>
+      </c>
+      <c r="D85" t="s">
+        <v>165</v>
+      </c>
+      <c r="E85" t="s">
         <v>166</v>
       </c>
-      <c r="B85" t="s">
-        <v>167</v>
-      </c>
-      <c r="C85" t="s">
-        <v>171</v>
-      </c>
-      <c r="D85" t="s">
-        <v>172</v>
-      </c>
-      <c r="E85" t="s">
-        <v>173</v>
-      </c>
       <c r="F85" t="s">
         <v>5</v>
       </c>
       <c r="G85" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H85" t="s">
         <v>9</v>
@@ -3345,33 +3324,33 @@
         <v>14</v>
       </c>
       <c r="L85" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M85" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>159</v>
+      </c>
+      <c r="B86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" t="s">
+        <v>164</v>
+      </c>
+      <c r="D86" t="s">
+        <v>165</v>
+      </c>
+      <c r="E86" t="s">
         <v>166</v>
       </c>
-      <c r="B86" t="s">
-        <v>167</v>
-      </c>
-      <c r="C86" t="s">
-        <v>171</v>
-      </c>
-      <c r="D86" t="s">
-        <v>172</v>
-      </c>
-      <c r="E86" t="s">
-        <v>173</v>
-      </c>
       <c r="F86" t="s">
         <v>5</v>
       </c>
       <c r="G86" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H86" t="s">
         <v>9</v>
@@ -3386,33 +3365,33 @@
         <v>22</v>
       </c>
       <c r="L86" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M86" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" t="s">
+        <v>160</v>
+      </c>
+      <c r="C87" t="s">
+        <v>164</v>
+      </c>
+      <c r="D87" t="s">
+        <v>165</v>
+      </c>
+      <c r="E87" t="s">
         <v>166</v>
       </c>
-      <c r="B87" t="s">
-        <v>167</v>
-      </c>
-      <c r="C87" t="s">
-        <v>171</v>
-      </c>
-      <c r="D87" t="s">
-        <v>172</v>
-      </c>
-      <c r="E87" t="s">
-        <v>173</v>
-      </c>
       <c r="F87" t="s">
         <v>5</v>
       </c>
       <c r="G87" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H87" t="s">
         <v>9</v>
@@ -3427,33 +3406,33 @@
         <v>24</v>
       </c>
       <c r="L87" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M87" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" t="s">
+        <v>160</v>
+      </c>
+      <c r="C88" t="s">
+        <v>164</v>
+      </c>
+      <c r="D88" t="s">
+        <v>165</v>
+      </c>
+      <c r="E88" t="s">
         <v>166</v>
       </c>
-      <c r="B88" t="s">
-        <v>167</v>
-      </c>
-      <c r="C88" t="s">
-        <v>171</v>
-      </c>
-      <c r="D88" t="s">
-        <v>172</v>
-      </c>
-      <c r="E88" t="s">
-        <v>173</v>
-      </c>
       <c r="F88" t="s">
         <v>5</v>
       </c>
       <c r="G88" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H88" t="s">
         <v>9</v>
@@ -3468,33 +3447,33 @@
         <v>26</v>
       </c>
       <c r="L88" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M88" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>159</v>
+      </c>
+      <c r="B89" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" t="s">
+        <v>164</v>
+      </c>
+      <c r="D89" t="s">
+        <v>165</v>
+      </c>
+      <c r="E89" t="s">
         <v>166</v>
       </c>
-      <c r="B89" t="s">
-        <v>167</v>
-      </c>
-      <c r="C89" t="s">
-        <v>171</v>
-      </c>
-      <c r="D89" t="s">
-        <v>172</v>
-      </c>
-      <c r="E89" t="s">
-        <v>173</v>
-      </c>
       <c r="F89" t="s">
         <v>5</v>
       </c>
       <c r="G89" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H89" t="s">
         <v>9</v>
@@ -3506,36 +3485,36 @@
         <v>21</v>
       </c>
       <c r="K89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L89" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M89" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" t="s">
+        <v>164</v>
+      </c>
+      <c r="D90" t="s">
+        <v>165</v>
+      </c>
+      <c r="E90" t="s">
         <v>166</v>
       </c>
-      <c r="B90" t="s">
-        <v>167</v>
-      </c>
-      <c r="C90" t="s">
-        <v>171</v>
-      </c>
-      <c r="D90" t="s">
-        <v>172</v>
-      </c>
-      <c r="E90" t="s">
-        <v>173</v>
-      </c>
       <c r="F90" t="s">
         <v>5</v>
       </c>
       <c r="G90" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H90" t="s">
         <v>9</v>
@@ -3550,33 +3529,33 @@
         <v>30</v>
       </c>
       <c r="L90" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M90" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>159</v>
+      </c>
+      <c r="B91" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" t="s">
+        <v>164</v>
+      </c>
+      <c r="D91" t="s">
+        <v>165</v>
+      </c>
+      <c r="E91" t="s">
         <v>166</v>
       </c>
-      <c r="B91" t="s">
-        <v>167</v>
-      </c>
-      <c r="C91" t="s">
-        <v>171</v>
-      </c>
-      <c r="D91" t="s">
-        <v>172</v>
-      </c>
-      <c r="E91" t="s">
-        <v>173</v>
-      </c>
       <c r="F91" t="s">
         <v>5</v>
       </c>
       <c r="G91" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H91" t="s">
         <v>9</v>
@@ -3591,391 +3570,446 @@
         <v>34</v>
       </c>
       <c r="L91" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="M91" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C92" t="s">
+        <v>164</v>
+      </c>
+      <c r="D92" t="s">
+        <v>165</v>
+      </c>
+      <c r="E92" t="s">
         <v>166</v>
       </c>
-      <c r="B92" t="s">
-        <v>167</v>
-      </c>
-      <c r="C92" t="s">
-        <v>187</v>
-      </c>
-      <c r="D92" t="s">
-        <v>188</v>
-      </c>
-      <c r="E92" t="s">
-        <v>189</v>
-      </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
-      </c>
-      <c r="H92" t="s">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="M92" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>159</v>
+      </c>
+      <c r="B93" t="s">
+        <v>160</v>
+      </c>
+      <c r="C93" t="s">
+        <v>164</v>
+      </c>
+      <c r="D93" t="s">
+        <v>165</v>
+      </c>
+      <c r="E93" t="s">
         <v>166</v>
       </c>
-      <c r="B93" t="s">
-        <v>167</v>
-      </c>
-      <c r="C93" t="s">
-        <v>187</v>
-      </c>
-      <c r="D93" t="s">
-        <v>188</v>
-      </c>
-      <c r="E93" t="s">
-        <v>189</v>
-      </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H93" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="M93" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>166</v>
-      </c>
-      <c r="B94" t="s">
-        <v>167</v>
-      </c>
-      <c r="C94" t="s">
-        <v>187</v>
-      </c>
-      <c r="D94" t="s">
-        <v>188</v>
-      </c>
-      <c r="E94" t="s">
-        <v>189</v>
-      </c>
-      <c r="F94" t="s">
-        <v>33</v>
-      </c>
-      <c r="G94" t="s">
-        <v>190</v>
-      </c>
-      <c r="H94" t="s">
-        <v>191</v>
-      </c>
-      <c r="M94" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B95" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C95" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D95" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F95" t="s">
         <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="H95" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="M95" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B96" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C96" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D96" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
         <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="H96" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="M96" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B97" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C97" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D97" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F97" t="s">
         <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="H97" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M97" t="s">
-        <v>248</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>159</v>
+      </c>
+      <c r="B98" t="s">
+        <v>160</v>
+      </c>
+      <c r="C98" t="s">
+        <v>180</v>
+      </c>
+      <c r="D98" t="s">
+        <v>181</v>
+      </c>
+      <c r="E98" t="s">
+        <v>182</v>
+      </c>
+      <c r="F98" t="s">
+        <v>33</v>
+      </c>
+      <c r="G98" t="s">
+        <v>162</v>
+      </c>
+      <c r="H98" t="s">
+        <v>184</v>
+      </c>
+      <c r="M98" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="B99" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="C99" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="D99" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="E99" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="F99" t="s">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="H99" t="s">
-        <v>60</v>
-      </c>
-      <c r="I99" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="M99" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="C100" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="D100" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="H100" t="s">
-        <v>60</v>
-      </c>
-      <c r="I100" t="s">
-        <v>65</v>
-      </c>
-      <c r="J100" t="s">
-        <v>131</v>
-      </c>
-      <c r="K100" t="s">
-        <v>65</v>
-      </c>
-      <c r="L100" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="M100" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>195</v>
-      </c>
-      <c r="B101" t="s">
-        <v>196</v>
-      </c>
-      <c r="C101" t="s">
-        <v>197</v>
-      </c>
-      <c r="D101" t="s">
-        <v>198</v>
-      </c>
-      <c r="E101" t="s">
-        <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
-      </c>
-      <c r="G101" t="s">
-        <v>201</v>
-      </c>
-      <c r="H101" t="s">
-        <v>60</v>
-      </c>
-      <c r="I101" t="s">
-        <v>65</v>
-      </c>
-      <c r="J101" t="s">
-        <v>131</v>
-      </c>
-      <c r="K101" t="s">
-        <v>132</v>
-      </c>
-      <c r="L101" t="s">
-        <v>205</v>
-      </c>
-      <c r="M101" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>188</v>
+      </c>
+      <c r="B102" t="s">
+        <v>189</v>
+      </c>
+      <c r="C102" t="s">
+        <v>190</v>
+      </c>
+      <c r="D102" t="s">
+        <v>191</v>
+      </c>
+      <c r="E102" t="s">
+        <v>192</v>
+      </c>
+      <c r="F102" t="s">
+        <v>193</v>
+      </c>
+      <c r="G102" t="s">
+        <v>194</v>
+      </c>
+      <c r="H102" t="s">
+        <v>59</v>
+      </c>
+      <c r="I102" t="s">
+        <v>60</v>
+      </c>
+      <c r="M102" t="s">
         <v>195</v>
-      </c>
-      <c r="B102" t="s">
-        <v>196</v>
-      </c>
-      <c r="C102" t="s">
-        <v>197</v>
-      </c>
-      <c r="D102" t="s">
-        <v>198</v>
-      </c>
-      <c r="E102" t="s">
-        <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
-      </c>
-      <c r="G102" t="s">
-        <v>201</v>
-      </c>
-      <c r="H102" t="s">
-        <v>60</v>
-      </c>
-      <c r="I102" t="s">
-        <v>65</v>
-      </c>
-      <c r="J102" t="s">
-        <v>131</v>
-      </c>
-      <c r="K102" t="s">
-        <v>132</v>
-      </c>
-      <c r="L102" t="s">
-        <v>206</v>
-      </c>
-      <c r="M102" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B103" t="s">
+        <v>189</v>
+      </c>
+      <c r="C103" t="s">
+        <v>190</v>
+      </c>
+      <c r="D103" t="s">
+        <v>191</v>
+      </c>
+      <c r="E103" t="s">
+        <v>192</v>
+      </c>
+      <c r="F103" t="s">
+        <v>193</v>
+      </c>
+      <c r="G103" t="s">
+        <v>194</v>
+      </c>
+      <c r="H103" t="s">
+        <v>59</v>
+      </c>
+      <c r="I103" t="s">
+        <v>64</v>
+      </c>
+      <c r="J103" t="s">
+        <v>126</v>
+      </c>
+      <c r="K103" t="s">
+        <v>64</v>
+      </c>
+      <c r="L103" t="s">
         <v>196</v>
       </c>
-      <c r="C103" t="s">
+      <c r="M103" t="s">
         <v>197</v>
-      </c>
-      <c r="D103" t="s">
-        <v>198</v>
-      </c>
-      <c r="E103" t="s">
-        <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
-      </c>
-      <c r="G103" t="s">
-        <v>209</v>
-      </c>
-      <c r="H103" t="s">
-        <v>210</v>
-      </c>
-      <c r="M103" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B104" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C104" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="D104" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="E104" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="F104" t="s">
+        <v>193</v>
+      </c>
+      <c r="G104" t="s">
+        <v>194</v>
+      </c>
+      <c r="H104" t="s">
+        <v>59</v>
+      </c>
+      <c r="I104" t="s">
+        <v>64</v>
+      </c>
+      <c r="J104" t="s">
+        <v>126</v>
+      </c>
+      <c r="K104" t="s">
+        <v>127</v>
+      </c>
+      <c r="L104" t="s">
+        <v>198</v>
+      </c>
+      <c r="M104" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>188</v>
+      </c>
+      <c r="B105" t="s">
+        <v>189</v>
+      </c>
+      <c r="C105" t="s">
+        <v>190</v>
+      </c>
+      <c r="D105" t="s">
         <v>191</v>
       </c>
-      <c r="M104" t="s">
-        <v>215</v>
+      <c r="E105" t="s">
+        <v>192</v>
+      </c>
+      <c r="F105" t="s">
+        <v>193</v>
+      </c>
+      <c r="G105" t="s">
+        <v>194</v>
+      </c>
+      <c r="H105" t="s">
+        <v>59</v>
+      </c>
+      <c r="I105" t="s">
+        <v>64</v>
+      </c>
+      <c r="J105" t="s">
+        <v>126</v>
+      </c>
+      <c r="K105" t="s">
+        <v>127</v>
+      </c>
+      <c r="L105" t="s">
+        <v>199</v>
+      </c>
+      <c r="M105" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>188</v>
+      </c>
+      <c r="B106" t="s">
+        <v>189</v>
+      </c>
+      <c r="C106" t="s">
+        <v>190</v>
+      </c>
+      <c r="D106" t="s">
+        <v>191</v>
+      </c>
+      <c r="E106" t="s">
+        <v>192</v>
+      </c>
+      <c r="F106" t="s">
+        <v>193</v>
+      </c>
+      <c r="G106" t="s">
+        <v>201</v>
+      </c>
+      <c r="H106" t="s">
+        <v>202</v>
+      </c>
+      <c r="M106" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>188</v>
+      </c>
+      <c r="B107" t="s">
+        <v>189</v>
+      </c>
+      <c r="C107" t="s">
+        <v>204</v>
+      </c>
+      <c r="D107" t="s">
+        <v>205</v>
+      </c>
+      <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
+        <v>184</v>
+      </c>
+      <c r="M107" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3989,7 +4023,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4004,7 +4038,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4027,87 +4061,87 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G4" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" t="s">
         <v>219</v>
       </c>
-      <c r="C5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E5" t="s">
-        <v>228</v>
-      </c>
       <c r="F5" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G5" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" t="s">
         <v>219</v>
       </c>
-      <c r="C6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E6" t="s">
-        <v>228</v>
-      </c>
       <c r="F6" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G6" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
